--- a/maps/NC/NC20C_energies.xlsx
+++ b/maps/NC/NC20C_energies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/NC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D735D4F5-7AED-FA40-83B9-B8EEE6886E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D536AA0F-0547-C740-8BE1-07E17A25C94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12660" yWindow="2580" windowWidth="28040" windowHeight="17440" xr2:uid="{93555388-7DC4-A44B-B4A5-912BBD09827C}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="NC20C_energies" localSheetId="0">Sheet1!$A$1:$I$994</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="1005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="1012">
   <si>
     <t>MAP</t>
   </si>
@@ -3074,6 +3074,27 @@
   </si>
   <si>
     <t>#</t>
+  </si>
+  <si>
+    <t># w/ delta energy &lt; 1% =</t>
+  </si>
+  <si>
+    <t># of those w/ shared % &gt; 95% =</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>std</t>
   </si>
 </sst>
 </file>
@@ -3108,7 +3129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -3116,17 +3137,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3445,13 +3479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D72CC85-FF18-8C4B-99AF-3CE12B6881B9}">
-  <dimension ref="A1:I994"/>
+  <dimension ref="A1:I1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B968" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="G999" sqref="G999"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28020,7 +28054,7 @@
         <v>9.0174000000000004E-2</v>
       </c>
     </row>
-    <row r="945" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A945">
         <v>534</v>
       </c>
@@ -28046,7 +28080,7 @@
         <v>0.29749199999999998</v>
       </c>
     </row>
-    <row r="946" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A946">
         <v>30</v>
       </c>
@@ -28072,7 +28106,7 @@
         <v>7.8670000000000004E-2</v>
       </c>
     </row>
-    <row r="947" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A947">
         <v>980</v>
       </c>
@@ -28098,7 +28132,7 @@
         <v>0.19318099999999999</v>
       </c>
     </row>
-    <row r="948" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A948">
         <v>20</v>
       </c>
@@ -28124,7 +28158,7 @@
         <v>8.1251000000000004E-2</v>
       </c>
     </row>
-    <row r="949" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A949">
         <v>789</v>
       </c>
@@ -28150,7 +28184,7 @@
         <v>8.0567E-2</v>
       </c>
     </row>
-    <row r="950" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A950">
         <v>913</v>
       </c>
@@ -28176,7 +28210,7 @@
         <v>0.28759699999999999</v>
       </c>
     </row>
-    <row r="951" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A951">
         <v>271</v>
       </c>
@@ -28202,7 +28236,7 @@
         <v>0.32470199999999999</v>
       </c>
     </row>
-    <row r="952" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A952">
         <v>545</v>
       </c>
@@ -28228,7 +28262,7 @@
         <v>0.147562</v>
       </c>
     </row>
-    <row r="953" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A953">
         <v>771</v>
       </c>
@@ -28254,33 +28288,34 @@
         <v>0.30631900000000001</v>
       </c>
     </row>
-    <row r="954" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A954">
+    <row r="954" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A954" s="6">
         <v>529</v>
       </c>
-      <c r="B954" s="1" t="s">
+      <c r="B954" s="7" t="s">
         <v>963</v>
       </c>
-      <c r="C954" t="b">
-        <v>1</v>
-      </c>
-      <c r="D954" s="5">
+      <c r="C954" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D954" s="8">
         <v>3123296.0743689998</v>
       </c>
-      <c r="E954" s="5">
+      <c r="E954" s="8">
         <v>9.9430000000000004E-3</v>
       </c>
-      <c r="F954" s="5">
+      <c r="F954" s="8">
         <v>0.95082</v>
       </c>
-      <c r="G954" s="5">
+      <c r="G954" s="8">
         <v>0.30898300000000001</v>
       </c>
-      <c r="H954" s="5">
+      <c r="H954" s="8">
         <v>0.10646899999999999</v>
       </c>
-    </row>
-    <row r="955" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I954" s="6"/>
+    </row>
+    <row r="955" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A955">
         <v>472</v>
       </c>
@@ -28306,7 +28341,7 @@
         <v>0.28905500000000001</v>
       </c>
     </row>
-    <row r="956" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A956">
         <v>345</v>
       </c>
@@ -28332,7 +28367,7 @@
         <v>0.26644400000000001</v>
       </c>
     </row>
-    <row r="957" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A957">
         <v>799</v>
       </c>
@@ -28358,7 +28393,7 @@
         <v>0.197577</v>
       </c>
     </row>
-    <row r="958" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A958">
         <v>125</v>
       </c>
@@ -28384,7 +28419,7 @@
         <v>0.27466299999999999</v>
       </c>
     </row>
-    <row r="959" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A959">
         <v>419</v>
       </c>
@@ -28410,7 +28445,7 @@
         <v>0.206979</v>
       </c>
     </row>
-    <row r="960" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A960">
         <v>319</v>
       </c>
@@ -29268,7 +29303,7 @@
         <v>0.48425099999999999</v>
       </c>
     </row>
-    <row r="993" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A993">
         <v>463</v>
       </c>
@@ -29294,7 +29329,7 @@
         <v>0.490255</v>
       </c>
     </row>
-    <row r="994" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A994">
         <v>679</v>
       </c>
@@ -29318,6 +29353,116 @@
       </c>
       <c r="H994" s="5">
         <v>0.49929000000000001</v>
+      </c>
+    </row>
+    <row r="995" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A995" s="6"/>
+      <c r="B995" s="6"/>
+      <c r="C995" s="6"/>
+      <c r="D995" s="8"/>
+      <c r="E995" s="8"/>
+      <c r="F995" s="8"/>
+      <c r="G995" s="8"/>
+      <c r="H995" s="8"/>
+      <c r="I995" s="6"/>
+    </row>
+    <row r="997" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B997" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D997" s="9">
+        <f>COUNTIF(E1:E994, "&lt;0.01")</f>
+        <v>953</v>
+      </c>
+      <c r="E997" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F997" s="5">
+        <f>MIN(F$2:F$954)</f>
+        <v>0.857124</v>
+      </c>
+      <c r="G997" s="5">
+        <f t="shared" ref="G997:H997" si="0">MIN(G$2:G$954)</f>
+        <v>0</v>
+      </c>
+      <c r="H997" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="998" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B998" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D998" s="9">
+        <f>COUNTIF(F1:F954, "&gt;0.95")</f>
+        <v>809</v>
+      </c>
+      <c r="E998" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F998" s="5">
+        <f>MAX(F$2:F$954)</f>
+        <v>1</v>
+      </c>
+      <c r="G998" s="5">
+        <f t="shared" ref="G998:H998" si="1">MAX(G$2:G$954)</f>
+        <v>0.51775099999999996</v>
+      </c>
+      <c r="H998" s="5">
+        <f t="shared" si="1"/>
+        <v>0.32470199999999999</v>
+      </c>
+    </row>
+    <row r="999" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E999" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F999" s="5">
+        <f>AVERAGE(F$2:F$954)</f>
+        <v>0.96294996222455331</v>
+      </c>
+      <c r="G999" s="5">
+        <f t="shared" ref="G999:H999" si="2">AVERAGE(G$2:G$954)</f>
+        <v>0.22377840713536198</v>
+      </c>
+      <c r="H999" s="5">
+        <f t="shared" si="2"/>
+        <v>8.0877792235047277E-2</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E1000" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F1000" s="5">
+        <f>MEDIAN(F$2:F$954)</f>
+        <v>0.96543699999999999</v>
+      </c>
+      <c r="G1000" s="5">
+        <f t="shared" ref="G1000:H1000" si="3">MEDIAN(G$2:G$954)</f>
+        <v>0.21759999999999999</v>
+      </c>
+      <c r="H1000" s="5">
+        <f t="shared" si="3"/>
+        <v>7.4444999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E1001" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F1001" s="5">
+        <f>STDEV(F$2:F$954)</f>
+        <v>1.6073263795003852E-2</v>
+      </c>
+      <c r="G1001" s="5">
+        <f t="shared" ref="G1001:H1001" si="4">STDEV(G$2:G$954)</f>
+        <v>6.5277105674079725E-2</v>
+      </c>
+      <c r="H1001" s="5">
+        <f t="shared" si="4"/>
+        <v>3.8474678433234613E-2</v>
       </c>
     </row>
   </sheetData>

--- a/maps/NC/NC20C_energies.xlsx
+++ b/maps/NC/NC20C_energies.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/NC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D536AA0F-0547-C740-8BE1-07E17A25C94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE34ACA-82C3-C54E-92D9-4C62BE8A796C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12660" yWindow="2580" windowWidth="28040" windowHeight="17440" xr2:uid="{93555388-7DC4-A44B-B4A5-912BBD09827C}"/>
+    <workbookView xWindow="1160" yWindow="560" windowWidth="27640" windowHeight="17440" activeTab="1" xr2:uid="{93555388-7DC4-A44B-B4A5-912BBD09827C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SUMMARY" sheetId="2" r:id="rId1"/>
+    <sheet name="DATA" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="NC20C_energies" localSheetId="0">Sheet1!$A$1:$I$994</definedName>
+    <definedName name="NC20C_energies" localSheetId="1">DATA!$A$1:$I$994</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="1012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="1018">
   <si>
     <t>MAP</t>
   </si>
@@ -3076,12 +3077,6 @@
     <t>#</t>
   </si>
   <si>
-    <t># w/ delta energy &lt; 1% =</t>
-  </si>
-  <si>
-    <t># of those w/ shared % &gt; 95% =</t>
-  </si>
-  <si>
     <t>min</t>
   </si>
   <si>
@@ -3095,6 +3090,30 @@
   </si>
   <si>
     <t>std</t>
+  </si>
+  <si>
+    <t>- successful runs</t>
+  </si>
+  <si>
+    <t>- failed runs</t>
+  </si>
+  <si>
+    <t>Statistics for all 1,000 iterations:</t>
+  </si>
+  <si>
+    <t>Of the 1,000 iterations:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>- # w/ delta energy &lt; 1%</t>
+  </si>
+  <si>
+    <t>- # of those w/ shared % &gt; 95%</t>
+  </si>
+  <si>
+    <t>Statistics for 953 maps w/ delta energy &lt; 1%:</t>
   </si>
 </sst>
 </file>
@@ -3104,7 +3123,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3120,16 +3139,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3146,11 +3202,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3160,10 +3228,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3478,14 +3574,359 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045A3513-EFCB-BC4F-BBD9-542D6B659B77}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B4" s="5">
+        <f>MIN(DATA!E$2:E$994)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <f>MIN(DATA!F$2:F$994)</f>
+        <v>0.81408100000000005</v>
+      </c>
+      <c r="D4" s="5">
+        <f>MIN(DATA!G$2:G$994)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <f>MIN(DATA!H$2:H$994)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B5" s="5">
+        <f>MAX(DATA!E$2:E$994)</f>
+        <v>5.7238999999999998E-2</v>
+      </c>
+      <c r="C5" s="5">
+        <f>MAX(DATA!F$2:F$994)</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <f>MAX(DATA!G$2:G$994)</f>
+        <v>0.72263999999999995</v>
+      </c>
+      <c r="E5" s="5">
+        <f>MAX(DATA!H$2:H$994)</f>
+        <v>0.52297300000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B6" s="5">
+        <f>AVERAGE(DATA!E$2:E$994)</f>
+        <v>5.7416565961732075E-3</v>
+      </c>
+      <c r="C6" s="5">
+        <f>AVERAGE(DATA!F$2:F$994)</f>
+        <v>0.95955529607250678</v>
+      </c>
+      <c r="D6" s="5">
+        <f>AVERAGE(DATA!G$2:G$994)</f>
+        <v>0.23588621752265865</v>
+      </c>
+      <c r="E6" s="5">
+        <f>AVERAGE(DATA!H$2:H$994)</f>
+        <v>9.0384536757301168E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B7" s="24">
+        <f>MEDIAN(DATA!E$2:E$994)</f>
+        <v>5.0650000000000001E-3</v>
+      </c>
+      <c r="C7" s="24">
+        <f>MEDIAN(DATA!F$2:F$994)</f>
+        <v>0.96486300000000003</v>
+      </c>
+      <c r="D7" s="24">
+        <f>MEDIAN(DATA!G$2:G$994)</f>
+        <v>0.22042600000000001</v>
+      </c>
+      <c r="E7" s="24">
+        <f>MEDIAN(DATA!H$2:H$994)</f>
+        <v>7.5990000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B8" s="8">
+        <f>STDEV(DATA!E$2:E$94)</f>
+        <v>5.0120089725671851E-4</v>
+      </c>
+      <c r="C8" s="8">
+        <f>STDEV(DATA!F$2:F$94)</f>
+        <v>7.5580684006127082E-3</v>
+      </c>
+      <c r="D8" s="8">
+        <f>STDEV(DATA!G$2:G$94)</f>
+        <v>4.1284768705372732E-2</v>
+      </c>
+      <c r="E8" s="8">
+        <f>STDEV(DATA!H$2:H$94)</f>
+        <v>1.6809233307846505E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="26" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D10" s="25"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="27" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="D11" s="28">
+        <f>COUNTA(DATA!A2:A994)</f>
+        <v>993</v>
+      </c>
+      <c r="E11" s="25"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="29" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="D12" s="26">
+        <f>1000-D11</f>
+        <v>7</v>
+      </c>
+      <c r="E12" s="30">
+        <f>D12/1000</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="32" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="D13" s="28">
+        <f>COUNTIF(DATA!E2:E994, "&lt;0.01")</f>
+        <v>953</v>
+      </c>
+      <c r="E13" s="31">
+        <f>D13/D11</f>
+        <v>0.95971802618328295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="32" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="D14" s="28">
+        <f>COUNTIF(DATA!F1:F954, "&gt;0.95")</f>
+        <v>809</v>
+      </c>
+      <c r="E14" s="31">
+        <f>D14/D13</f>
+        <v>0.84889821615949634</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="32"/>
+      <c r="B15" s="25"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="31"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="33" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="31"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="18"/>
+      <c r="B18" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B19" s="5">
+        <f>MIN(DATA!E$2:E$954)</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="5">
+        <f>MIN(DATA!F$2:F$954)</f>
+        <v>0.857124</v>
+      </c>
+      <c r="D19" s="5">
+        <f>MIN(DATA!G$2:G$954)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <f>MIN(DATA!H$2:H$954)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B20" s="5">
+        <f>MAX(DATA!E$2:E$954)</f>
+        <v>9.9430000000000004E-3</v>
+      </c>
+      <c r="C20" s="5">
+        <f>MAX(DATA!F$2:F$954)</f>
+        <v>1</v>
+      </c>
+      <c r="D20" s="5">
+        <f>MAX(DATA!G$2:G$954)</f>
+        <v>0.51775099999999996</v>
+      </c>
+      <c r="E20" s="5">
+        <f>MAX(DATA!H$2:H$954)</f>
+        <v>0.32470199999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B21" s="5">
+        <f>AVERAGE(DATA!E$2:E$954)</f>
+        <v>5.0287061909758601E-3</v>
+      </c>
+      <c r="C21" s="5">
+        <f>AVERAGE(DATA!F$2:F$954)</f>
+        <v>0.96294996222455331</v>
+      </c>
+      <c r="D21" s="5">
+        <f>AVERAGE(DATA!G$2:G$954)</f>
+        <v>0.22377840713536198</v>
+      </c>
+      <c r="E21" s="5">
+        <f>AVERAGE(DATA!H$2:H$954)</f>
+        <v>8.0877792235047277E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B22" s="24">
+        <f>MEDIAN(DATA!E$2:E$954)</f>
+        <v>4.9630000000000004E-3</v>
+      </c>
+      <c r="C22" s="24">
+        <f>MEDIAN(DATA!F$2:F$954)</f>
+        <v>0.96543699999999999</v>
+      </c>
+      <c r="D22" s="24">
+        <f>MEDIAN(DATA!G$2:G$954)</f>
+        <v>0.21759999999999999</v>
+      </c>
+      <c r="E22" s="24">
+        <f>MEDIAN(DATA!H$2:H$954)</f>
+        <v>7.4444999999999997E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B23" s="8">
+        <f>STDEV(DATA!E$2:E$954)</f>
+        <v>2.0168709534814926E-3</v>
+      </c>
+      <c r="C23" s="8">
+        <f>STDEV(DATA!F$2:F$954)</f>
+        <v>1.6073263795003852E-2</v>
+      </c>
+      <c r="D23" s="8">
+        <f>STDEV(DATA!G$2:G$954)</f>
+        <v>6.5277105674079725E-2</v>
+      </c>
+      <c r="E23" s="8">
+        <f>STDEV(DATA!H$2:H$954)</f>
+        <v>3.8474678433234613E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D72CC85-FF18-8C4B-99AF-3CE12B6881B9}">
-  <dimension ref="A1:I1001"/>
+  <dimension ref="A1:K1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B968" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B960" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G999" sqref="G999"/>
+      <selection pane="bottomRight" activeCell="A955" sqref="A955:A994"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3495,10 +3936,11 @@
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1004</v>
       </c>
@@ -3526,37 +3968,39 @@
       <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="J1"/>
+      <c r="K1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="12">
         <v>541</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="C2" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14">
         <v>3092546.3265280002</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="14">
         <v>0</v>
       </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5">
+      <c r="F2" s="14">
+        <v>1</v>
+      </c>
+      <c r="G2" s="14">
         <v>0</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="14">
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>387</v>
       </c>
@@ -3582,7 +4026,7 @@
         <v>2.0001000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>664</v>
       </c>
@@ -3608,7 +4052,7 @@
         <v>3.4812000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>804</v>
       </c>
@@ -3634,7 +4078,7 @@
         <v>0.10667500000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>937</v>
       </c>
@@ -3660,36 +4104,36 @@
         <v>3.8461000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="15">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="C7" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="17">
         <v>3094876.3574419999</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="17">
         <v>7.5299999999999998E-4</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="17">
         <v>0.99054799999999998</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="17">
         <v>7.6328999999999994E-2</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="17">
         <v>1.9293999999999999E-2</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>670</v>
       </c>
@@ -3715,7 +4159,7 @@
         <v>2.6762999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>906</v>
       </c>
@@ -3741,7 +4185,7 @@
         <v>7.4583999999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>725</v>
       </c>
@@ -3767,7 +4211,7 @@
         <v>3.7546000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>584</v>
       </c>
@@ -3793,7 +4237,7 @@
         <v>3.4155999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>944</v>
       </c>
@@ -3819,7 +4263,7 @@
         <v>5.7817E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>375</v>
       </c>
@@ -3845,7 +4289,7 @@
         <v>4.0018999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>390</v>
       </c>
@@ -3871,7 +4315,7 @@
         <v>3.8762999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>957</v>
       </c>
@@ -3897,7 +4341,7 @@
         <v>3.1725000000000003E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>680</v>
       </c>
@@ -5432,31 +5876,31 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75">
+      <c r="A75" s="9">
         <v>4</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C75" t="b">
-        <v>1</v>
-      </c>
-      <c r="D75" s="5">
+      <c r="C75" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D75" s="11">
         <v>3099132.5369899999</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E75" s="11">
         <v>2.1299999999999999E-3</v>
       </c>
-      <c r="F75" s="5">
+      <c r="F75" s="11">
         <v>0.96496199999999999</v>
       </c>
-      <c r="G75" s="5">
+      <c r="G75" s="11">
         <v>0.217949</v>
       </c>
-      <c r="H75" s="5">
+      <c r="H75" s="11">
         <v>7.6469999999999996E-2</v>
       </c>
-      <c r="I75" s="1" t="s">
+      <c r="I75" s="10" t="s">
         <v>84</v>
       </c>
     </row>
@@ -28316,1154 +28760,1133 @@
       <c r="I954" s="6"/>
     </row>
     <row r="955" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A955">
+      <c r="A955" s="20">
         <v>472</v>
       </c>
-      <c r="B955" s="1" t="s">
+      <c r="B955" s="21" t="s">
         <v>964</v>
       </c>
-      <c r="C955" t="b">
-        <v>1</v>
-      </c>
-      <c r="D955" s="5">
+      <c r="C955" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D955" s="22">
         <v>3123707.7908669999</v>
       </c>
-      <c r="E955" s="5">
+      <c r="E955" s="22">
         <v>1.0076E-2</v>
       </c>
-      <c r="F955" s="5">
+      <c r="F955" s="22">
         <v>0.88203500000000001</v>
       </c>
-      <c r="G955" s="5">
+      <c r="G955" s="22">
         <v>0.47164</v>
       </c>
-      <c r="H955" s="5">
+      <c r="H955" s="22">
         <v>0.28905500000000001</v>
       </c>
+      <c r="I955" s="20"/>
     </row>
     <row r="956" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A956">
+      <c r="A956" s="20">
         <v>345</v>
       </c>
-      <c r="B956" s="1" t="s">
+      <c r="B956" s="21" t="s">
         <v>965</v>
       </c>
-      <c r="C956" t="b">
-        <v>1</v>
-      </c>
-      <c r="D956" s="5">
+      <c r="C956" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D956" s="22">
         <v>3123896.4086250002</v>
       </c>
-      <c r="E956" s="5">
+      <c r="E956" s="22">
         <v>1.0137E-2</v>
       </c>
-      <c r="F956" s="5">
+      <c r="F956" s="22">
         <v>0.89107400000000003</v>
       </c>
-      <c r="G956" s="5">
+      <c r="G956" s="22">
         <v>0.44064399999999998</v>
       </c>
-      <c r="H956" s="5">
+      <c r="H956" s="22">
         <v>0.26644400000000001</v>
       </c>
+      <c r="I956" s="20"/>
     </row>
     <row r="957" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A957">
+      <c r="A957" s="20">
         <v>799</v>
       </c>
-      <c r="B957" s="1" t="s">
+      <c r="B957" s="21" t="s">
         <v>966</v>
       </c>
-      <c r="C957" t="b">
-        <v>1</v>
-      </c>
-      <c r="D957" s="5">
+      <c r="C957" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D957" s="22">
         <v>3123933.0572569999</v>
       </c>
-      <c r="E957" s="5">
+      <c r="E957" s="22">
         <v>1.0149E-2</v>
       </c>
-      <c r="F957" s="5">
+      <c r="F957" s="22">
         <v>0.91379299999999997</v>
       </c>
-      <c r="G957" s="5">
+      <c r="G957" s="22">
         <v>0.45446700000000001</v>
       </c>
-      <c r="H957" s="5">
+      <c r="H957" s="22">
         <v>0.197577</v>
       </c>
+      <c r="I957" s="20"/>
     </row>
     <row r="958" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A958">
+      <c r="A958" s="20">
         <v>125</v>
       </c>
-      <c r="B958" s="1" t="s">
+      <c r="B958" s="21" t="s">
         <v>967</v>
       </c>
-      <c r="C958" t="b">
-        <v>1</v>
-      </c>
-      <c r="D958" s="5">
+      <c r="C958" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D958" s="22">
         <v>3124038.7229840001</v>
       </c>
-      <c r="E958" s="5">
+      <c r="E958" s="22">
         <v>1.0182999999999999E-2</v>
       </c>
-      <c r="F958" s="5">
+      <c r="F958" s="22">
         <v>0.88985899999999996</v>
       </c>
-      <c r="G958" s="5">
+      <c r="G958" s="22">
         <v>0.46465499999999998</v>
       </c>
-      <c r="H958" s="5">
+      <c r="H958" s="22">
         <v>0.27466299999999999</v>
       </c>
+      <c r="I958" s="20"/>
     </row>
     <row r="959" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A959">
+      <c r="A959" s="20">
         <v>419</v>
       </c>
-      <c r="B959" s="1" t="s">
+      <c r="B959" s="21" t="s">
         <v>968</v>
       </c>
-      <c r="C959" t="b">
-        <v>1</v>
-      </c>
-      <c r="D959" s="5">
+      <c r="C959" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D959" s="22">
         <v>3124171.6997039998</v>
       </c>
-      <c r="E959" s="5">
+      <c r="E959" s="22">
         <v>1.0226000000000001E-2</v>
       </c>
-      <c r="F959" s="5">
+      <c r="F959" s="22">
         <v>0.91237100000000004</v>
       </c>
-      <c r="G959" s="5">
+      <c r="G959" s="22">
         <v>0.41782399999999997</v>
       </c>
-      <c r="H959" s="5">
+      <c r="H959" s="22">
         <v>0.206979</v>
       </c>
+      <c r="I959" s="20"/>
     </row>
     <row r="960" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A960">
+      <c r="A960" s="20">
         <v>319</v>
       </c>
-      <c r="B960" s="1" t="s">
+      <c r="B960" s="21" t="s">
         <v>969</v>
       </c>
-      <c r="C960" t="b">
-        <v>1</v>
-      </c>
-      <c r="D960" s="5">
+      <c r="C960" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D960" s="22">
         <v>3124307.8417119998</v>
       </c>
-      <c r="E960" s="5">
+      <c r="E960" s="22">
         <v>1.027E-2</v>
       </c>
-      <c r="F960" s="5">
+      <c r="F960" s="22">
         <v>0.96826999999999996</v>
       </c>
-      <c r="G960" s="5">
+      <c r="G960" s="22">
         <v>0.216586</v>
       </c>
-      <c r="H960" s="5">
+      <c r="H960" s="22">
         <v>6.6535999999999998E-2</v>
       </c>
-    </row>
-    <row r="961" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A961">
+      <c r="I960" s="20"/>
+    </row>
+    <row r="961" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A961" s="20">
         <v>230</v>
       </c>
-      <c r="B961" s="1" t="s">
+      <c r="B961" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="C961" t="b">
-        <v>1</v>
-      </c>
-      <c r="D961" s="5">
+      <c r="C961" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D961" s="22">
         <v>3124653.6901739999</v>
       </c>
-      <c r="E961" s="5">
+      <c r="E961" s="22">
         <v>1.0382000000000001E-2</v>
       </c>
-      <c r="F961" s="5">
+      <c r="F961" s="22">
         <v>0.88956000000000002</v>
       </c>
-      <c r="G961" s="5">
+      <c r="G961" s="22">
         <v>0.44365900000000003</v>
       </c>
-      <c r="H961" s="5">
+      <c r="H961" s="22">
         <v>0.26980199999999999</v>
       </c>
-    </row>
-    <row r="962" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A962">
+      <c r="I961" s="20"/>
+    </row>
+    <row r="962" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A962" s="20">
         <v>470</v>
       </c>
-      <c r="B962" s="1" t="s">
+      <c r="B962" s="21" t="s">
         <v>971</v>
       </c>
-      <c r="C962" t="b">
-        <v>1</v>
-      </c>
-      <c r="D962" s="5">
+      <c r="C962" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D962" s="22">
         <v>3124936.4635399999</v>
       </c>
-      <c r="E962" s="5">
+      <c r="E962" s="22">
         <v>1.0474000000000001E-2</v>
       </c>
-      <c r="F962" s="5">
+      <c r="F962" s="22">
         <v>0.91640699999999997</v>
       </c>
-      <c r="G962" s="5">
+      <c r="G962" s="22">
         <v>0.43564900000000001</v>
       </c>
-      <c r="H962" s="5">
+      <c r="H962" s="22">
         <v>0.19089300000000001</v>
       </c>
-    </row>
-    <row r="963" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A963">
+      <c r="I962" s="20"/>
+    </row>
+    <row r="963" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A963" s="20">
         <v>564</v>
       </c>
-      <c r="B963" s="1" t="s">
+      <c r="B963" s="21" t="s">
         <v>972</v>
       </c>
-      <c r="C963" t="b">
-        <v>1</v>
-      </c>
-      <c r="D963" s="5">
+      <c r="C963" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D963" s="22">
         <v>3125059.9025900001</v>
       </c>
-      <c r="E963" s="5">
+      <c r="E963" s="22">
         <v>1.0514000000000001E-2</v>
       </c>
-      <c r="F963" s="5">
+      <c r="F963" s="22">
         <v>0.964144</v>
       </c>
-      <c r="G963" s="5">
+      <c r="G963" s="22">
         <v>0.237349</v>
       </c>
-      <c r="H963" s="5">
+      <c r="H963" s="22">
         <v>7.5667999999999999E-2</v>
       </c>
-    </row>
-    <row r="964" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A964">
+      <c r="I963" s="20"/>
+    </row>
+    <row r="964" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A964" s="20">
         <v>156</v>
       </c>
-      <c r="B964" s="1" t="s">
+      <c r="B964" s="21" t="s">
         <v>973</v>
       </c>
-      <c r="C964" t="b">
-        <v>1</v>
-      </c>
-      <c r="D964" s="5">
+      <c r="C964" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D964" s="22">
         <v>3125142.093444</v>
       </c>
-      <c r="E964" s="5">
+      <c r="E964" s="22">
         <v>1.0540000000000001E-2</v>
       </c>
-      <c r="F964" s="5">
+      <c r="F964" s="22">
         <v>0.91720699999999999</v>
       </c>
-      <c r="G964" s="5">
+      <c r="G964" s="22">
         <v>0.41091899999999998</v>
       </c>
-      <c r="H964" s="5">
+      <c r="H964" s="22">
         <v>0.19370399999999999</v>
       </c>
-    </row>
-    <row r="965" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A965">
+      <c r="I964" s="20"/>
+    </row>
+    <row r="965" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A965" s="20">
         <v>633</v>
       </c>
-      <c r="B965" s="1" t="s">
+      <c r="B965" s="21" t="s">
         <v>974</v>
       </c>
-      <c r="C965" t="b">
-        <v>1</v>
-      </c>
-      <c r="D965" s="5">
+      <c r="C965" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D965" s="22">
         <v>3126589.1072720001</v>
       </c>
-      <c r="E965" s="5">
+      <c r="E965" s="22">
         <v>1.1008E-2</v>
       </c>
-      <c r="F965" s="5">
+      <c r="F965" s="22">
         <v>0.89892799999999995</v>
       </c>
-      <c r="G965" s="5">
+      <c r="G965" s="22">
         <v>0.51191799999999998</v>
       </c>
-      <c r="H965" s="5">
+      <c r="H965" s="22">
         <v>0.234762</v>
       </c>
-    </row>
-    <row r="966" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A966">
+      <c r="I965" s="20"/>
+    </row>
+    <row r="966" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A966" s="20">
         <v>740</v>
       </c>
-      <c r="B966" s="1" t="s">
+      <c r="B966" s="21" t="s">
         <v>975</v>
       </c>
-      <c r="C966" t="b">
-        <v>1</v>
-      </c>
-      <c r="D966" s="5">
+      <c r="C966" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D966" s="22">
         <v>3127416.5275960001</v>
       </c>
-      <c r="E966" s="5">
+      <c r="E966" s="22">
         <v>1.1276E-2</v>
       </c>
-      <c r="F966" s="5">
+      <c r="F966" s="22">
         <v>0.86840200000000001</v>
       </c>
-      <c r="G966" s="5">
+      <c r="G966" s="22">
         <v>0.57187699999999997</v>
       </c>
-      <c r="H966" s="5">
+      <c r="H966" s="22">
         <v>0.35071799999999997</v>
       </c>
-    </row>
-    <row r="967" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A967">
+      <c r="I966" s="20"/>
+    </row>
+    <row r="967" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A967" s="20">
         <v>186</v>
       </c>
-      <c r="B967" s="1" t="s">
+      <c r="B967" s="21" t="s">
         <v>976</v>
       </c>
-      <c r="C967" t="b">
-        <v>1</v>
-      </c>
-      <c r="D967" s="5">
+      <c r="C967" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D967" s="22">
         <v>3130097.24138</v>
       </c>
-      <c r="E967" s="5">
+      <c r="E967" s="22">
         <v>1.2142E-2</v>
       </c>
-      <c r="F967" s="5">
+      <c r="F967" s="22">
         <v>0.95421900000000004</v>
       </c>
-      <c r="G967" s="5">
+      <c r="G967" s="22">
         <v>0.28436400000000001</v>
       </c>
-      <c r="H967" s="5">
+      <c r="H967" s="22">
         <v>9.8145999999999997E-2</v>
       </c>
-    </row>
-    <row r="968" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A968">
+      <c r="I967" s="20"/>
+    </row>
+    <row r="968" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A968" s="20">
         <v>873</v>
       </c>
-      <c r="B968" s="1" t="s">
+      <c r="B968" s="21" t="s">
         <v>977</v>
       </c>
-      <c r="C968" t="b">
-        <v>1</v>
-      </c>
-      <c r="D968" s="5">
+      <c r="C968" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D968" s="22">
         <v>3133111.942764</v>
       </c>
-      <c r="E968" s="5">
+      <c r="E968" s="22">
         <v>1.3117E-2</v>
       </c>
-      <c r="F968" s="5">
+      <c r="F968" s="22">
         <v>0.91750699999999996</v>
       </c>
-      <c r="G968" s="5">
+      <c r="G968" s="22">
         <v>0.42387999999999998</v>
       </c>
-      <c r="H968" s="5">
+      <c r="H968" s="22">
         <v>0.19156599999999999</v>
       </c>
-    </row>
-    <row r="969" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A969">
+      <c r="I968" s="20"/>
+    </row>
+    <row r="969" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A969" s="20">
         <v>635</v>
       </c>
-      <c r="B969" s="1" t="s">
+      <c r="B969" s="21" t="s">
         <v>978</v>
       </c>
-      <c r="C969" t="b">
-        <v>1</v>
-      </c>
-      <c r="D969" s="5">
+      <c r="C969" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D969" s="22">
         <v>3139694.1915890002</v>
       </c>
-      <c r="E969" s="5">
+      <c r="E969" s="22">
         <v>1.5245999999999999E-2</v>
       </c>
-      <c r="F969" s="5">
+      <c r="F969" s="22">
         <v>0.82033999999999996</v>
       </c>
-      <c r="G969" s="5">
+      <c r="G969" s="22">
         <v>0.70764300000000002</v>
       </c>
-      <c r="H969" s="5">
+      <c r="H969" s="22">
         <v>0.509517</v>
       </c>
-    </row>
-    <row r="970" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A970">
+      <c r="I969" s="20"/>
+    </row>
+    <row r="970" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A970" s="34">
         <v>19</v>
       </c>
-      <c r="B970" s="1" t="s">
+      <c r="B970" s="35" t="s">
         <v>979</v>
       </c>
-      <c r="C970" t="b">
+      <c r="C970" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="D970" s="5">
+      <c r="D970" s="36">
         <v>3147537.0029310002</v>
       </c>
-      <c r="E970" s="5">
+      <c r="E970" s="36">
         <v>1.7781999999999999E-2</v>
       </c>
-      <c r="F970" s="5">
+      <c r="F970" s="36">
         <v>0.907084</v>
       </c>
-      <c r="G970" s="5">
+      <c r="G970" s="36">
         <v>0.44855299999999998</v>
       </c>
-      <c r="H970" s="5">
+      <c r="H970" s="36">
         <v>0.22550600000000001</v>
       </c>
-    </row>
-    <row r="971" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A971">
+      <c r="I970" s="34"/>
+    </row>
+    <row r="971" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A971" s="20">
         <v>581</v>
       </c>
-      <c r="B971" s="1" t="s">
+      <c r="B971" s="21" t="s">
         <v>980</v>
       </c>
-      <c r="C971" t="b">
-        <v>1</v>
-      </c>
-      <c r="D971" s="5">
+      <c r="C971" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D971" s="22">
         <v>3147667.1814410002</v>
       </c>
-      <c r="E971" s="5">
+      <c r="E971" s="22">
         <v>1.7824E-2</v>
       </c>
-      <c r="F971" s="5">
+      <c r="F971" s="22">
         <v>0.87667200000000001</v>
       </c>
-      <c r="G971" s="5">
+      <c r="G971" s="22">
         <v>0.51930900000000002</v>
       </c>
-      <c r="H971" s="5">
+      <c r="H971" s="22">
         <v>0.319996</v>
       </c>
-    </row>
-    <row r="972" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A972">
+      <c r="I971" s="20"/>
+    </row>
+    <row r="972" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A972" s="20">
         <v>330</v>
       </c>
-      <c r="B972" s="1" t="s">
+      <c r="B972" s="21" t="s">
         <v>981</v>
       </c>
-      <c r="C972" t="b">
-        <v>1</v>
-      </c>
-      <c r="D972" s="5">
+      <c r="C972" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D972" s="22">
         <v>3152489.3840350001</v>
       </c>
-      <c r="E972" s="5">
+      <c r="E972" s="22">
         <v>1.9383000000000001E-2</v>
       </c>
-      <c r="F972" s="5">
+      <c r="F972" s="22">
         <v>0.81518000000000002</v>
       </c>
-      <c r="G972" s="5">
+      <c r="G972" s="22">
         <v>0.72263999999999995</v>
       </c>
-      <c r="H972" s="5">
+      <c r="H972" s="22">
         <v>0.52297300000000002</v>
       </c>
-    </row>
-    <row r="973" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A973">
+      <c r="I972" s="20"/>
+    </row>
+    <row r="973" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A973" s="34">
         <v>40</v>
       </c>
-      <c r="B973" s="1" t="s">
+      <c r="B973" s="35" t="s">
         <v>982</v>
       </c>
-      <c r="C973" t="b">
-        <v>1</v>
-      </c>
-      <c r="D973" s="5">
+      <c r="C973" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="D973" s="36">
         <v>3153002.3256069999</v>
       </c>
-      <c r="E973" s="5">
+      <c r="E973" s="36">
         <v>1.9549E-2</v>
       </c>
-      <c r="F973" s="5">
+      <c r="F973" s="36">
         <v>0.84957000000000005</v>
       </c>
-      <c r="G973" s="5">
+      <c r="G973" s="36">
         <v>0.65176500000000004</v>
       </c>
-      <c r="H973" s="5">
+      <c r="H973" s="36">
         <v>0.40416099999999999</v>
       </c>
-    </row>
-    <row r="974" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A974">
+      <c r="I973" s="34"/>
+    </row>
+    <row r="974" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A974" s="20">
         <v>887</v>
       </c>
-      <c r="B974" s="1" t="s">
+      <c r="B974" s="21" t="s">
         <v>983</v>
       </c>
-      <c r="C974" t="b">
-        <v>1</v>
-      </c>
-      <c r="D974" s="5">
+      <c r="C974" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D974" s="22">
         <v>3153683.6065159999</v>
       </c>
-      <c r="E974" s="5">
+      <c r="E974" s="22">
         <v>1.9768999999999998E-2</v>
       </c>
-      <c r="F974" s="5">
+      <c r="F974" s="22">
         <v>0.91867699999999997</v>
       </c>
-      <c r="G974" s="5">
+      <c r="G974" s="22">
         <v>0.44203199999999998</v>
       </c>
-      <c r="H974" s="5">
+      <c r="H974" s="22">
         <v>0.18588399999999999</v>
       </c>
-    </row>
-    <row r="975" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A975">
+      <c r="I974" s="20"/>
+    </row>
+    <row r="975" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A975" s="20">
         <v>326</v>
       </c>
-      <c r="B975" s="1" t="s">
+      <c r="B975" s="21" t="s">
         <v>984</v>
       </c>
-      <c r="C975" t="b">
+      <c r="C975" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="D975" s="5">
+      <c r="D975" s="22">
         <v>3153751.6978549999</v>
       </c>
-      <c r="E975" s="5">
+      <c r="E975" s="22">
         <v>1.9791E-2</v>
       </c>
-      <c r="F975" s="5">
+      <c r="F975" s="22">
         <v>0.86301600000000001</v>
       </c>
-      <c r="G975" s="5">
+      <c r="G975" s="22">
         <v>0.54194399999999998</v>
       </c>
-      <c r="H975" s="5">
+      <c r="H975" s="22">
         <v>0.346335</v>
       </c>
-    </row>
-    <row r="976" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A976">
+      <c r="I975" s="20"/>
+    </row>
+    <row r="976" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A976" s="20">
         <v>105</v>
       </c>
-      <c r="B976" s="1" t="s">
+      <c r="B976" s="21" t="s">
         <v>985</v>
       </c>
-      <c r="C976" t="b">
-        <v>1</v>
-      </c>
-      <c r="D976" s="5">
+      <c r="C976" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D976" s="22">
         <v>3153808.58494</v>
       </c>
-      <c r="E976" s="5">
+      <c r="E976" s="22">
         <v>1.9810000000000001E-2</v>
       </c>
-      <c r="F976" s="5">
+      <c r="F976" s="22">
         <v>0.882884</v>
       </c>
-      <c r="G976" s="5">
+      <c r="G976" s="22">
         <v>0.53687399999999996</v>
       </c>
-      <c r="H976" s="5">
+      <c r="H976" s="22">
         <v>0.30505300000000002</v>
       </c>
-    </row>
-    <row r="977" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A977">
+      <c r="I976" s="20"/>
+    </row>
+    <row r="977" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A977" s="20">
         <v>642</v>
       </c>
-      <c r="B977" s="1" t="s">
+      <c r="B977" s="21" t="s">
         <v>986</v>
       </c>
-      <c r="C977" t="b">
-        <v>1</v>
-      </c>
-      <c r="D977" s="5">
+      <c r="C977" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D977" s="22">
         <v>3155148.9716619998</v>
       </c>
-      <c r="E977" s="5">
+      <c r="E977" s="22">
         <v>2.0243000000000001E-2</v>
       </c>
-      <c r="F977" s="5">
+      <c r="F977" s="22">
         <v>0.86711300000000002</v>
       </c>
-      <c r="G977" s="5">
+      <c r="G977" s="22">
         <v>0.49324600000000002</v>
       </c>
-      <c r="H977" s="5">
+      <c r="H977" s="22">
         <v>0.327264</v>
       </c>
-    </row>
-    <row r="978" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A978">
+      <c r="I977" s="20"/>
+    </row>
+    <row r="978" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A978" s="20">
         <v>368</v>
       </c>
-      <c r="B978" s="1" t="s">
+      <c r="B978" s="21" t="s">
         <v>987</v>
       </c>
-      <c r="C978" t="b">
-        <v>1</v>
-      </c>
-      <c r="D978" s="5">
+      <c r="C978" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D978" s="22">
         <v>3156115.270827</v>
       </c>
-      <c r="E978" s="5">
+      <c r="E978" s="22">
         <v>2.0556000000000001E-2</v>
       </c>
-      <c r="F978" s="5">
+      <c r="F978" s="22">
         <v>0.87188699999999997</v>
       </c>
-      <c r="G978" s="5">
+      <c r="G978" s="22">
         <v>0.50794799999999996</v>
       </c>
-      <c r="H978" s="5">
+      <c r="H978" s="22">
         <v>0.32316800000000001</v>
       </c>
-    </row>
-    <row r="979" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A979">
+      <c r="I978" s="20"/>
+    </row>
+    <row r="979" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A979" s="20">
         <v>834</v>
       </c>
-      <c r="B979" s="1" t="s">
+      <c r="B979" s="21" t="s">
         <v>988</v>
       </c>
-      <c r="C979" t="b">
-        <v>1</v>
-      </c>
-      <c r="D979" s="5">
+      <c r="C979" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D979" s="22">
         <v>3156733.7655259999</v>
       </c>
-      <c r="E979" s="5">
+      <c r="E979" s="22">
         <v>2.0756E-2</v>
       </c>
-      <c r="F979" s="5">
+      <c r="F979" s="22">
         <v>0.87920100000000001</v>
       </c>
-      <c r="G979" s="5">
+      <c r="G979" s="22">
         <v>0.57230400000000003</v>
       </c>
-      <c r="H979" s="5">
+      <c r="H979" s="22">
         <v>0.30826700000000001</v>
       </c>
-    </row>
-    <row r="980" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A980">
+      <c r="I979" s="20"/>
+    </row>
+    <row r="980" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A980" s="20">
         <v>168</v>
       </c>
-      <c r="B980" s="1" t="s">
+      <c r="B980" s="21" t="s">
         <v>989</v>
       </c>
-      <c r="C980" t="b">
-        <v>1</v>
-      </c>
-      <c r="D980" s="5">
+      <c r="C980" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D980" s="22">
         <v>3163682.477589</v>
       </c>
-      <c r="E980" s="5">
+      <c r="E980" s="22">
         <v>2.3002000000000002E-2</v>
       </c>
-      <c r="F980" s="5">
+      <c r="F980" s="22">
         <v>0.90099099999999999</v>
       </c>
-      <c r="G980" s="5">
+      <c r="G980" s="22">
         <v>0.444442</v>
       </c>
-      <c r="H980" s="5">
+      <c r="H980" s="22">
         <v>0.25366100000000003</v>
       </c>
-    </row>
-    <row r="981" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A981">
+      <c r="I980" s="20"/>
+    </row>
+    <row r="981" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A981" s="20">
         <v>691</v>
       </c>
-      <c r="B981" s="1" t="s">
+      <c r="B981" s="21" t="s">
         <v>990</v>
       </c>
-      <c r="C981" t="b">
-        <v>1</v>
-      </c>
-      <c r="D981" s="5">
+      <c r="C981" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D981" s="22">
         <v>3177297.6682020002</v>
       </c>
-      <c r="E981" s="5">
+      <c r="E981" s="22">
         <v>2.7404999999999999E-2</v>
       </c>
-      <c r="F981" s="5">
+      <c r="F981" s="22">
         <v>0.86929400000000001</v>
       </c>
-      <c r="G981" s="5">
+      <c r="G981" s="22">
         <v>0.57416900000000004</v>
       </c>
-      <c r="H981" s="5">
+      <c r="H981" s="22">
         <v>0.354939</v>
       </c>
-    </row>
-    <row r="982" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A982">
+      <c r="I981" s="20"/>
+    </row>
+    <row r="982" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A982" s="20">
         <v>959</v>
       </c>
-      <c r="B982" s="1" t="s">
+      <c r="B982" s="21" t="s">
         <v>991</v>
       </c>
-      <c r="C982" t="b">
-        <v>1</v>
-      </c>
-      <c r="D982" s="5">
+      <c r="C982" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D982" s="22">
         <v>3177675.9862549999</v>
       </c>
-      <c r="E982" s="5">
+      <c r="E982" s="22">
         <v>2.7526999999999999E-2</v>
       </c>
-      <c r="F982" s="5">
+      <c r="F982" s="22">
         <v>0.85500100000000001</v>
       </c>
-      <c r="G982" s="5">
+      <c r="G982" s="22">
         <v>0.63742500000000002</v>
       </c>
-      <c r="H982" s="5">
+      <c r="H982" s="22">
         <v>0.39241999999999999</v>
       </c>
-    </row>
-    <row r="983" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A983">
+      <c r="I982" s="20"/>
+    </row>
+    <row r="983" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A983" s="34">
         <v>76</v>
       </c>
-      <c r="B983" s="1" t="s">
+      <c r="B983" s="35" t="s">
         <v>992</v>
       </c>
-      <c r="C983" t="b">
-        <v>1</v>
-      </c>
-      <c r="D983" s="5">
+      <c r="C983" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="D983" s="36">
         <v>3181340.6115540001</v>
       </c>
-      <c r="E983" s="5">
+      <c r="E983" s="36">
         <v>2.8712000000000001E-2</v>
       </c>
-      <c r="F983" s="5">
+      <c r="F983" s="36">
         <v>0.83211999999999997</v>
       </c>
-      <c r="G983" s="5">
+      <c r="G983" s="36">
         <v>0.71996599999999999</v>
       </c>
-      <c r="H983" s="5">
+      <c r="H983" s="36">
         <v>0.45306800000000003</v>
       </c>
-    </row>
-    <row r="984" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A984">
+      <c r="I983" s="34"/>
+    </row>
+    <row r="984" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A984" s="20">
         <v>748</v>
       </c>
-      <c r="B984" s="1" t="s">
+      <c r="B984" s="21" t="s">
         <v>993</v>
       </c>
-      <c r="C984" t="b">
-        <v>1</v>
-      </c>
-      <c r="D984" s="5">
+      <c r="C984" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D984" s="22">
         <v>3181482.2969220001</v>
       </c>
-      <c r="E984" s="5">
+      <c r="E984" s="22">
         <v>2.8757999999999999E-2</v>
       </c>
-      <c r="F984" s="5">
+      <c r="F984" s="22">
         <v>0.85528400000000004</v>
       </c>
-      <c r="G984" s="5">
+      <c r="G984" s="22">
         <v>0.63660700000000003</v>
       </c>
-      <c r="H984" s="5">
+      <c r="H984" s="22">
         <v>0.38336199999999998</v>
       </c>
-    </row>
-    <row r="985" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A985">
+      <c r="I984" s="20"/>
+    </row>
+    <row r="985" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A985" s="20">
         <v>164</v>
       </c>
-      <c r="B985" s="1" t="s">
+      <c r="B985" s="21" t="s">
         <v>994</v>
       </c>
-      <c r="C985" t="b">
-        <v>1</v>
-      </c>
-      <c r="D985" s="5">
+      <c r="C985" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D985" s="22">
         <v>3181846.2989619998</v>
       </c>
-      <c r="E985" s="5">
+      <c r="E985" s="22">
         <v>2.8875999999999999E-2</v>
       </c>
-      <c r="F985" s="5">
+      <c r="F985" s="22">
         <v>0.85420300000000005</v>
       </c>
-      <c r="G985" s="5">
+      <c r="G985" s="22">
         <v>0.63858599999999999</v>
       </c>
-      <c r="H985" s="5">
+      <c r="H985" s="22">
         <v>0.39217400000000002</v>
       </c>
-    </row>
-    <row r="986" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A986">
+      <c r="I985" s="20"/>
+    </row>
+    <row r="986" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A986" s="20">
         <v>415</v>
       </c>
-      <c r="B986" s="1" t="s">
+      <c r="B986" s="21" t="s">
         <v>995</v>
       </c>
-      <c r="C986" t="b">
-        <v>1</v>
-      </c>
-      <c r="D986" s="5">
+      <c r="C986" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D986" s="22">
         <v>3186734.6679690001</v>
       </c>
-      <c r="E986" s="5">
+      <c r="E986" s="22">
         <v>3.0457000000000001E-2</v>
       </c>
-      <c r="F986" s="5">
+      <c r="F986" s="22">
         <v>0.84150899999999995</v>
       </c>
-      <c r="G986" s="5">
+      <c r="G986" s="22">
         <v>0.67558700000000005</v>
       </c>
-      <c r="H986" s="5">
+      <c r="H986" s="22">
         <v>0.43319800000000003</v>
       </c>
-    </row>
-    <row r="987" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A987">
+      <c r="I986" s="20"/>
+    </row>
+    <row r="987" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A987" s="20">
         <v>513</v>
       </c>
-      <c r="B987" s="1" t="s">
+      <c r="B987" s="21" t="s">
         <v>996</v>
       </c>
-      <c r="C987" t="b">
-        <v>1</v>
-      </c>
-      <c r="D987" s="5">
+      <c r="C987" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D987" s="22">
         <v>3188551.2637459999</v>
       </c>
-      <c r="E987" s="5">
+      <c r="E987" s="22">
         <v>3.1043999999999999E-2</v>
       </c>
-      <c r="F987" s="5">
+      <c r="F987" s="22">
         <v>0.84030199999999999</v>
       </c>
-      <c r="G987" s="5">
+      <c r="G987" s="22">
         <v>0.66081000000000001</v>
       </c>
-      <c r="H987" s="5">
+      <c r="H987" s="22">
         <v>0.45541300000000001</v>
       </c>
-    </row>
-    <row r="988" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A988">
+      <c r="I987" s="20"/>
+    </row>
+    <row r="988" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A988" s="20">
         <v>926</v>
       </c>
-      <c r="B988" s="1" t="s">
+      <c r="B988" s="21" t="s">
         <v>997</v>
       </c>
-      <c r="C988" t="b">
-        <v>1</v>
-      </c>
-      <c r="D988" s="5">
+      <c r="C988" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D988" s="22">
         <v>3189067.13546</v>
       </c>
-      <c r="E988" s="5">
+      <c r="E988" s="22">
         <v>3.1210999999999999E-2</v>
       </c>
-      <c r="F988" s="5">
+      <c r="F988" s="22">
         <v>0.92505000000000004</v>
       </c>
-      <c r="G988" s="5">
+      <c r="G988" s="22">
         <v>0.38875999999999999</v>
       </c>
-      <c r="H988" s="5">
+      <c r="H988" s="22">
         <v>0.17139599999999999</v>
       </c>
-    </row>
-    <row r="989" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A989">
+      <c r="I988" s="20"/>
+    </row>
+    <row r="989" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A989" s="20">
         <v>747</v>
       </c>
-      <c r="B989" s="1" t="s">
+      <c r="B989" s="21" t="s">
         <v>998</v>
       </c>
-      <c r="C989" t="b">
-        <v>1</v>
-      </c>
-      <c r="D989" s="5">
+      <c r="C989" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D989" s="22">
         <v>3194163.712084</v>
       </c>
-      <c r="E989" s="5">
+      <c r="E989" s="22">
         <v>3.2858999999999999E-2</v>
       </c>
-      <c r="F989" s="5">
+      <c r="F989" s="22">
         <v>0.83747099999999997</v>
       </c>
-      <c r="G989" s="5">
+      <c r="G989" s="22">
         <v>0.70336600000000005</v>
       </c>
-      <c r="H989" s="5">
+      <c r="H989" s="22">
         <v>0.442052</v>
       </c>
-    </row>
-    <row r="990" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A990">
+      <c r="I989" s="20"/>
+    </row>
+    <row r="990" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A990" s="20">
         <v>384</v>
       </c>
-      <c r="B990" s="1" t="s">
+      <c r="B990" s="21" t="s">
         <v>999</v>
       </c>
-      <c r="C990" t="b">
-        <v>1</v>
-      </c>
-      <c r="D990" s="5">
+      <c r="C990" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D990" s="22">
         <v>3212964.4846270001</v>
       </c>
-      <c r="E990" s="5">
+      <c r="E990" s="22">
         <v>3.8938E-2</v>
       </c>
-      <c r="F990" s="5">
+      <c r="F990" s="22">
         <v>0.89351700000000001</v>
       </c>
-      <c r="G990" s="5">
+      <c r="G990" s="22">
         <v>0.44597300000000001</v>
       </c>
-      <c r="H990" s="5">
+      <c r="H990" s="22">
         <v>0.26689299999999999</v>
       </c>
-    </row>
-    <row r="991" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A991">
+      <c r="I990" s="20"/>
+    </row>
+    <row r="991" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A991" s="20">
         <v>595</v>
       </c>
-      <c r="B991" s="1" t="s">
+      <c r="B991" s="21" t="s">
         <v>1000</v>
       </c>
-      <c r="C991" t="b">
-        <v>1</v>
-      </c>
-      <c r="D991" s="5">
+      <c r="C991" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D991" s="22">
         <v>3256331.8412489998</v>
       </c>
-      <c r="E991" s="5">
+      <c r="E991" s="22">
         <v>5.2961000000000001E-2</v>
       </c>
-      <c r="F991" s="5">
+      <c r="F991" s="22">
         <v>0.81408100000000005</v>
       </c>
-      <c r="G991" s="5">
+      <c r="G991" s="22">
         <v>0.66812000000000005</v>
       </c>
-      <c r="H991" s="5">
+      <c r="H991" s="22">
         <v>0.51829999999999998</v>
       </c>
-    </row>
-    <row r="992" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A992">
+      <c r="I991" s="20"/>
+    </row>
+    <row r="992" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A992" s="20">
         <v>745</v>
       </c>
-      <c r="B992" s="1" t="s">
+      <c r="B992" s="21" t="s">
         <v>1001</v>
       </c>
-      <c r="C992" t="b">
-        <v>1</v>
-      </c>
-      <c r="D992" s="5">
+      <c r="C992" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D992" s="22">
         <v>3258485.3284550002</v>
       </c>
-      <c r="E992" s="5">
+      <c r="E992" s="22">
         <v>5.3657999999999997E-2</v>
       </c>
-      <c r="F992" s="5">
+      <c r="F992" s="22">
         <v>0.83368399999999998</v>
       </c>
-      <c r="G992" s="5">
+      <c r="G992" s="22">
         <v>0.60072800000000004</v>
       </c>
-      <c r="H992" s="5">
+      <c r="H992" s="22">
         <v>0.48425099999999999</v>
       </c>
+      <c r="I992" s="20"/>
     </row>
     <row r="993" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A993">
+      <c r="A993" s="20">
         <v>463</v>
       </c>
-      <c r="B993" s="1" t="s">
+      <c r="B993" s="21" t="s">
         <v>1002</v>
       </c>
-      <c r="C993" t="b">
-        <v>1</v>
-      </c>
-      <c r="D993" s="5">
+      <c r="C993" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D993" s="22">
         <v>3263432.9036639999</v>
       </c>
-      <c r="E993" s="5">
+      <c r="E993" s="22">
         <v>5.5258000000000002E-2</v>
       </c>
-      <c r="F993" s="5">
+      <c r="F993" s="22">
         <v>0.83175399999999999</v>
       </c>
-      <c r="G993" s="5">
+      <c r="G993" s="22">
         <v>0.61843300000000001</v>
       </c>
-      <c r="H993" s="5">
+      <c r="H993" s="22">
         <v>0.490255</v>
       </c>
+      <c r="I993" s="20"/>
     </row>
     <row r="994" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A994">
+      <c r="A994" s="20">
         <v>679</v>
       </c>
-      <c r="B994" s="1" t="s">
+      <c r="B994" s="21" t="s">
         <v>1003</v>
       </c>
-      <c r="C994" t="b">
-        <v>1</v>
-      </c>
-      <c r="D994" s="5">
+      <c r="C994" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D994" s="22">
         <v>3269560.6583710001</v>
       </c>
-      <c r="E994" s="5">
+      <c r="E994" s="22">
         <v>5.7238999999999998E-2</v>
       </c>
-      <c r="F994" s="5">
+      <c r="F994" s="22">
         <v>0.827434</v>
       </c>
-      <c r="G994" s="5">
+      <c r="G994" s="22">
         <v>0.63153099999999995</v>
       </c>
-      <c r="H994" s="5">
+      <c r="H994" s="22">
         <v>0.49929000000000001</v>
       </c>
+      <c r="I994" s="20"/>
     </row>
     <row r="995" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A995" s="6"/>
-      <c r="B995" s="6"/>
-      <c r="C995" s="6"/>
-      <c r="D995" s="8"/>
-      <c r="E995" s="8"/>
-      <c r="F995" s="8"/>
-      <c r="G995" s="8"/>
-      <c r="H995" s="8"/>
-      <c r="I995" s="6"/>
+      <c r="D995"/>
+      <c r="E995"/>
+      <c r="F995"/>
+      <c r="G995"/>
+      <c r="H995"/>
+    </row>
+    <row r="996" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D996"/>
+      <c r="E996"/>
+      <c r="F996"/>
+      <c r="G996"/>
+      <c r="H996"/>
     </row>
     <row r="997" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B997" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D997" s="9">
-        <f>COUNTIF(E1:E994, "&lt;0.01")</f>
-        <v>953</v>
-      </c>
-      <c r="E997" s="5" t="s">
-        <v>1007</v>
-      </c>
-      <c r="F997" s="5">
-        <f>MIN(F$2:F$954)</f>
-        <v>0.857124</v>
-      </c>
-      <c r="G997" s="5">
-        <f t="shared" ref="G997:H997" si="0">MIN(G$2:G$954)</f>
-        <v>0</v>
-      </c>
-      <c r="H997" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D997"/>
+      <c r="E997"/>
+      <c r="F997"/>
+      <c r="G997"/>
+      <c r="H997"/>
     </row>
     <row r="998" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B998" s="1" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D998" s="9">
-        <f>COUNTIF(F1:F954, "&gt;0.95")</f>
-        <v>809</v>
-      </c>
-      <c r="E998" s="5" t="s">
-        <v>1008</v>
-      </c>
-      <c r="F998" s="5">
-        <f>MAX(F$2:F$954)</f>
-        <v>1</v>
-      </c>
-      <c r="G998" s="5">
-        <f t="shared" ref="G998:H998" si="1">MAX(G$2:G$954)</f>
-        <v>0.51775099999999996</v>
-      </c>
-      <c r="H998" s="5">
-        <f t="shared" si="1"/>
-        <v>0.32470199999999999</v>
-      </c>
+      <c r="D998"/>
+      <c r="E998"/>
+      <c r="F998"/>
+      <c r="G998"/>
+      <c r="H998"/>
     </row>
     <row r="999" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E999" s="5" t="s">
-        <v>1009</v>
-      </c>
-      <c r="F999" s="5">
-        <f>AVERAGE(F$2:F$954)</f>
-        <v>0.96294996222455331</v>
-      </c>
-      <c r="G999" s="5">
-        <f t="shared" ref="G999:H999" si="2">AVERAGE(G$2:G$954)</f>
-        <v>0.22377840713536198</v>
-      </c>
-      <c r="H999" s="5">
-        <f t="shared" si="2"/>
-        <v>8.0877792235047277E-2</v>
-      </c>
+      <c r="D999"/>
+      <c r="E999"/>
+      <c r="F999"/>
+      <c r="G999"/>
+      <c r="H999"/>
     </row>
     <row r="1000" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E1000" s="5" t="s">
-        <v>1010</v>
-      </c>
-      <c r="F1000" s="5">
-        <f>MEDIAN(F$2:F$954)</f>
-        <v>0.96543699999999999</v>
-      </c>
-      <c r="G1000" s="5">
-        <f t="shared" ref="G1000:H1000" si="3">MEDIAN(G$2:G$954)</f>
-        <v>0.21759999999999999</v>
-      </c>
-      <c r="H1000" s="5">
-        <f t="shared" si="3"/>
-        <v>7.4444999999999997E-2</v>
-      </c>
+      <c r="D1000"/>
+      <c r="E1000"/>
+      <c r="F1000"/>
+      <c r="G1000"/>
+      <c r="H1000"/>
     </row>
     <row r="1001" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E1001" s="5" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F1001" s="5">
-        <f>STDEV(F$2:F$954)</f>
-        <v>1.6073263795003852E-2</v>
-      </c>
-      <c r="G1001" s="5">
-        <f t="shared" ref="G1001:H1001" si="4">STDEV(G$2:G$954)</f>
-        <v>6.5277105674079725E-2</v>
-      </c>
-      <c r="H1001" s="5">
-        <f t="shared" si="4"/>
-        <v>3.8474678433234613E-2</v>
-      </c>
+      <c r="D1001"/>
+      <c r="E1001"/>
+      <c r="F1001"/>
+      <c r="G1001"/>
+      <c r="H1001"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/maps/NC/NC20C_energies.xlsx
+++ b/maps/NC/NC20C_energies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10404"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/NC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE34ACA-82C3-C54E-92D9-4C62BE8A796C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B66A43-74E6-C942-98B2-54FA5CE2B740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="560" windowWidth="27640" windowHeight="17440" activeTab="1" xr2:uid="{93555388-7DC4-A44B-B4A5-912BBD09827C}"/>
+    <workbookView xWindow="1420" yWindow="560" windowWidth="27640" windowHeight="17440" xr2:uid="{93555388-7DC4-A44B-B4A5-912BBD09827C}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="2" r:id="rId1"/>
@@ -3218,7 +3218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3242,17 +3242,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -3577,7 +3574,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045A3513-EFCB-BC4F-BBD9-542D6B659B77}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3671,19 +3670,19 @@
       <c r="A7" s="5" t="s">
         <v>1008</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="5">
         <f>MEDIAN(DATA!E$2:E$994)</f>
         <v>5.0650000000000001E-3</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="5">
         <f>MEDIAN(DATA!F$2:F$994)</f>
         <v>0.96486300000000003</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="5">
         <f>MEDIAN(DATA!G$2:G$994)</f>
         <v>0.22042600000000001</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="5">
         <f>MEDIAN(DATA!H$2:H$994)</f>
         <v>7.5990000000000002E-2</v>
       </c>
@@ -3693,105 +3692,96 @@
         <v>1009</v>
       </c>
       <c r="B8" s="8">
-        <f>STDEV(DATA!E$2:E$94)</f>
-        <v>5.0120089725671851E-4</v>
+        <f>STDEV(DATA!E$2:E$994)</f>
+        <v>4.8072210531585509E-3</v>
       </c>
       <c r="C8" s="8">
-        <f>STDEV(DATA!F$2:F$94)</f>
-        <v>7.5580684006127082E-3</v>
+        <f>STDEV(DATA!F$2:F$994)</f>
+        <v>2.4198256342786443E-2</v>
       </c>
       <c r="D8" s="8">
-        <f>STDEV(DATA!G$2:G$94)</f>
-        <v>4.1284768705372732E-2</v>
+        <f>STDEV(DATA!G$2:G$994)</f>
+        <v>9.0724217876771304E-2</v>
       </c>
       <c r="E8" s="8">
-        <f>STDEV(DATA!H$2:H$94)</f>
-        <v>1.6809233307846505E-2</v>
+        <f>STDEV(DATA!H$2:H$994)</f>
+        <v>6.4773993187564022E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+      <c r="A10" t="s">
         <v>1013</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="23" t="s">
         <v>1014</v>
       </c>
-      <c r="D10" s="25"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="24" t="s">
         <v>1010</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="D11" s="28">
+      <c r="D11" s="25">
         <f>COUNTA(DATA!A2:A994)</f>
         <v>993</v>
       </c>
-      <c r="E11" s="25"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="26" t="s">
         <v>1011</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="D12" s="26">
+      <c r="D12" s="23">
         <f>1000-D11</f>
         <v>7</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="27">
         <f>D12/1000</f>
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="29" t="s">
         <v>1015</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="D13" s="28">
+      <c r="D13" s="25">
         <f>COUNTIF(DATA!E2:E994, "&lt;0.01")</f>
         <v>953</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="28">
         <f>D13/D11</f>
         <v>0.95971802618328295</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="29" t="s">
         <v>1016</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="D14" s="28">
+      <c r="D14" s="25">
         <f>COUNTIF(DATA!F1:F954, "&gt;0.95")</f>
         <v>809</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="28">
         <f>D14/D13</f>
         <v>0.84889821615949634</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="32"/>
-      <c r="B15" s="25"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="31"/>
+      <c r="A15" s="29"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="28"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="30" t="s">
         <v>1017</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="31"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="28"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
@@ -3875,19 +3865,19 @@
       <c r="A22" s="5" t="s">
         <v>1008</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="5">
         <f>MEDIAN(DATA!E$2:E$954)</f>
         <v>4.9630000000000004E-3</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="5">
         <f>MEDIAN(DATA!F$2:F$954)</f>
         <v>0.96543699999999999</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="5">
         <f>MEDIAN(DATA!G$2:G$954)</f>
         <v>0.21759999999999999</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="5">
         <f>MEDIAN(DATA!H$2:H$954)</f>
         <v>7.4444999999999997E-2</v>
       </c>
@@ -3922,8 +3912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D72CC85-FF18-8C4B-99AF-3CE12B6881B9}">
   <dimension ref="A1:K1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B960" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B973" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A955" sqref="A955:A994"/>
@@ -29165,31 +29155,31 @@
       <c r="I969" s="20"/>
     </row>
     <row r="970" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A970" s="34">
+      <c r="A970" s="31">
         <v>19</v>
       </c>
-      <c r="B970" s="35" t="s">
+      <c r="B970" s="32" t="s">
         <v>979</v>
       </c>
-      <c r="C970" s="34" t="b">
+      <c r="C970" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="D970" s="36">
+      <c r="D970" s="33">
         <v>3147537.0029310002</v>
       </c>
-      <c r="E970" s="36">
+      <c r="E970" s="33">
         <v>1.7781999999999999E-2</v>
       </c>
-      <c r="F970" s="36">
+      <c r="F970" s="33">
         <v>0.907084</v>
       </c>
-      <c r="G970" s="36">
+      <c r="G970" s="33">
         <v>0.44855299999999998</v>
       </c>
-      <c r="H970" s="36">
+      <c r="H970" s="33">
         <v>0.22550600000000001</v>
       </c>
-      <c r="I970" s="34"/>
+      <c r="I970" s="31"/>
     </row>
     <row r="971" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A971" s="20">
@@ -29246,31 +29236,31 @@
       <c r="I972" s="20"/>
     </row>
     <row r="973" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A973" s="34">
+      <c r="A973" s="31">
         <v>40</v>
       </c>
-      <c r="B973" s="35" t="s">
+      <c r="B973" s="32" t="s">
         <v>982</v>
       </c>
-      <c r="C973" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="D973" s="36">
+      <c r="C973" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D973" s="33">
         <v>3153002.3256069999</v>
       </c>
-      <c r="E973" s="36">
+      <c r="E973" s="33">
         <v>1.9549E-2</v>
       </c>
-      <c r="F973" s="36">
+      <c r="F973" s="33">
         <v>0.84957000000000005</v>
       </c>
-      <c r="G973" s="36">
+      <c r="G973" s="33">
         <v>0.65176500000000004</v>
       </c>
-      <c r="H973" s="36">
+      <c r="H973" s="33">
         <v>0.40416099999999999</v>
       </c>
-      <c r="I973" s="34"/>
+      <c r="I973" s="31"/>
     </row>
     <row r="974" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A974" s="20">
@@ -29516,31 +29506,31 @@
       <c r="I982" s="20"/>
     </row>
     <row r="983" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A983" s="34">
+      <c r="A983" s="31">
         <v>76</v>
       </c>
-      <c r="B983" s="35" t="s">
+      <c r="B983" s="32" t="s">
         <v>992</v>
       </c>
-      <c r="C983" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="D983" s="36">
+      <c r="C983" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D983" s="33">
         <v>3181340.6115540001</v>
       </c>
-      <c r="E983" s="36">
+      <c r="E983" s="33">
         <v>2.8712000000000001E-2</v>
       </c>
-      <c r="F983" s="36">
+      <c r="F983" s="33">
         <v>0.83211999999999997</v>
       </c>
-      <c r="G983" s="36">
+      <c r="G983" s="33">
         <v>0.71996599999999999</v>
       </c>
-      <c r="H983" s="36">
+      <c r="H983" s="33">
         <v>0.45306800000000003</v>
       </c>
-      <c r="I983" s="34"/>
+      <c r="I983" s="31"/>
     </row>
     <row r="984" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A984" s="20">

--- a/maps/NC/NC20C_energies.xlsx
+++ b/maps/NC/NC20C_energies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/NC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B66A43-74E6-C942-98B2-54FA5CE2B740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F95D89-4F3A-A54B-9C51-40783DA47543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="560" windowWidth="27640" windowHeight="17440" xr2:uid="{93555388-7DC4-A44B-B4A5-912BBD09827C}"/>
+    <workbookView xWindow="1160" yWindow="560" windowWidth="27640" windowHeight="17440" activeTab="1" xr2:uid="{93555388-7DC4-A44B-B4A5-912BBD09827C}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="1018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="1019">
   <si>
     <t>MAP</t>
   </si>
@@ -3114,6 +3114,9 @@
   </si>
   <si>
     <t>Statistics for 953 maps w/ delta energy &lt; 1%:</t>
+  </si>
+  <si>
+    <t>- # not contiguous</t>
   </si>
 </sst>
 </file>
@@ -3572,10 +3575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045A3513-EFCB-BC4F-BBD9-542D6B659B77}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3772,133 +3775,146 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="29"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="28"/>
+      <c r="A15" s="24" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D15">
+        <f>COUNTIF(DATA!C2:C1001, FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E15" s="28">
+        <f>D15/D11</f>
+        <v>4.0281973816717019E-3</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
-        <v>1017</v>
-      </c>
+      <c r="A16" s="29"/>
       <c r="D16" s="25"/>
       <c r="E16" s="28"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="30" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="28"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="18"/>
+      <c r="B19" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C19" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D19" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E19" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>1005</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B20" s="5">
         <f>MIN(DATA!E$2:E$954)</f>
         <v>0</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C20" s="5">
         <f>MIN(DATA!F$2:F$954)</f>
         <v>0.857124</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D20" s="5">
         <f>MIN(DATA!G$2:G$954)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E20" s="5">
         <f>MIN(DATA!H$2:H$954)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>1006</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B21" s="5">
         <f>MAX(DATA!E$2:E$954)</f>
         <v>9.9430000000000004E-3</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C21" s="5">
         <f>MAX(DATA!F$2:F$954)</f>
         <v>1</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D21" s="5">
         <f>MAX(DATA!G$2:G$954)</f>
         <v>0.51775099999999996</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E21" s="5">
         <f>MAX(DATA!H$2:H$954)</f>
         <v>0.32470199999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>1007</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B22" s="5">
         <f>AVERAGE(DATA!E$2:E$954)</f>
         <v>5.0287061909758601E-3</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C22" s="5">
         <f>AVERAGE(DATA!F$2:F$954)</f>
         <v>0.96294996222455331</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D22" s="5">
         <f>AVERAGE(DATA!G$2:G$954)</f>
         <v>0.22377840713536198</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E22" s="5">
         <f>AVERAGE(DATA!H$2:H$954)</f>
         <v>8.0877792235047277E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
         <v>1008</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B23" s="5">
         <f>MEDIAN(DATA!E$2:E$954)</f>
         <v>4.9630000000000004E-3</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C23" s="5">
         <f>MEDIAN(DATA!F$2:F$954)</f>
         <v>0.96543699999999999</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D23" s="5">
         <f>MEDIAN(DATA!G$2:G$954)</f>
         <v>0.21759999999999999</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E23" s="5">
         <f>MEDIAN(DATA!H$2:H$954)</f>
         <v>7.4444999999999997E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
         <v>1009</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B24" s="8">
         <f>STDEV(DATA!E$2:E$954)</f>
         <v>2.0168709534814926E-3</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C24" s="8">
         <f>STDEV(DATA!F$2:F$954)</f>
         <v>1.6073263795003852E-2</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D24" s="8">
         <f>STDEV(DATA!G$2:G$954)</f>
         <v>6.5277105674079725E-2</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E24" s="8">
         <f>STDEV(DATA!H$2:H$954)</f>
         <v>3.8474678433234613E-2</v>
       </c>
@@ -3912,8 +3928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D72CC85-FF18-8C4B-99AF-3CE12B6881B9}">
   <dimension ref="A1:K1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B973" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B911" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A955" sqref="A955:A994"/>
